--- a/Datasheets/ESP WIFI.xlsx
+++ b/Datasheets/ESP WIFI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/serparram_alum_us_es/Documents/Escritorio/Tercero/SegundoCuatri/Proyectos integrados/Datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/serparram_alum_us_es/Documents/Escritorio/Tercero/SegundoCuatri/Proyectos integrados/pi01/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9185C80-9A88-435F-9AEB-1485FA7186D6}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92DDEE81-B06E-468C-A858-8593979B41C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{121CA96C-2885-4729-A560-A640673F77D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>INPUT</t>
   </si>
@@ -293,9 +293,6 @@
     <t>1 Motor mezcladora</t>
   </si>
   <si>
-    <t>2 valvulas</t>
-  </si>
-  <si>
     <t>6 ultrasonidos</t>
   </si>
   <si>
@@ -363,6 +360,12 @@
   </si>
   <si>
     <t>1 I/O</t>
+  </si>
+  <si>
+    <t>3 valvulas</t>
+  </si>
+  <si>
+    <t>1 bomba de agua</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,21 +678,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,18 +762,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,7 +1110,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,18 +1172,18 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
@@ -1189,18 +1196,18 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
@@ -1213,18 +1220,18 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1252,11 +1259,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="49" t="s">
-        <v>106</v>
+      <c r="M5" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1283,11 +1290,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1314,11 +1321,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1345,7 +1352,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1378,7 +1385,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="K9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1424,10 +1431,10 @@
       <c r="B11" s="1">
         <v>25</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1446,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="1"/>
@@ -1454,8 +1461,8 @@
       <c r="B12" s="1">
         <v>26</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1474,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="17" t="s">
@@ -1485,8 +1492,8 @@
       <c r="B13" s="1">
         <v>27</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1496,16 +1503,16 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="21" t="s">
-        <v>89</v>
+      <c r="M13" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -1516,8 +1523,8 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1531,14 +1538,14 @@
       <c r="I14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="21"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -1571,14 +1578,14 @@
       <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="27"/>
       <c r="N15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -1586,29 +1593,29 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="21"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1638,45 +1645,43 @@
         <v>2</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>91</v>
+      <c r="M17" s="27"/>
+      <c r="N17" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1">
-        <v>15</v>
-      </c>
-      <c r="O18" s="1">
-        <v>10</v>
-      </c>
+      <c r="N18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="51"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1686,19 +1691,23 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="44"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1">
+        <v>10</v>
+      </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1708,15 +1717,15 @@
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="44"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1730,15 +1739,15 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="44"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1752,15 +1761,15 @@
       <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="44"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1774,15 +1783,15 @@
       <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="44"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1796,10 +1805,10 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1822,7 @@
       <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="30" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="1"/>
@@ -1829,8 +1838,8 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="K25" s="27"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1856,10 +1865,10 @@
       <c r="B26" s="11">
         <v>0</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="11" t="s">
         <v>53</v>
       </c>
@@ -1874,7 +1883,7 @@
       <c r="J26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="27"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1888,10 +1897,10 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="K27" s="27"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1929,7 +1938,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="K28" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1956,7 +1965,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="K29" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1985,7 +1994,7 @@
         <v>66</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2014,7 +2023,7 @@
         <v>63</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2043,7 +2052,7 @@
         <v>65</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2055,18 +2064,18 @@
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2094,7 +2103,7 @@
         <v>62</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2125,8 +2134,8 @@
       <c r="J35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="45" t="s">
-        <v>99</v>
+      <c r="K35" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2157,7 +2166,7 @@
       <c r="J36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K36" s="45"/>
+      <c r="K36" s="48"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2185,7 +2194,7 @@
         <v>62</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2214,7 +2223,7 @@
         <v>64</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2226,18 +2235,18 @@
       <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3037,12 +3046,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B16:K16"/>
@@ -3058,6 +3061,12 @@
     <mergeCell ref="C18:D23"/>
     <mergeCell ref="K18:K23"/>
     <mergeCell ref="K35:K36"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasheets/ESP WIFI.xlsx
+++ b/Datasheets/ESP WIFI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/serparram_alum_us_es/Documents/Escritorio/Tercero/SegundoCuatri/Proyectos integrados/pi01/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92DDEE81-B06E-468C-A858-8593979B41C4}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17EB3E4A-AB97-4AD9-9191-E89BA827663D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{121CA96C-2885-4729-A560-A640673F77D6}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>Entrada ultra tanque 1</t>
   </si>
   <si>
-    <t>Boton apagado</t>
-  </si>
-  <si>
     <t>Entrada ultra agua</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>Entrada ultra tanque 2</t>
   </si>
   <si>
-    <t>Conexiones entre placas</t>
-  </si>
-  <si>
     <t>Aviso ultra azucar</t>
   </si>
   <si>
@@ -359,13 +353,19 @@
     <t>0 Input</t>
   </si>
   <si>
-    <t>1 I/O</t>
-  </si>
-  <si>
     <t>3 valvulas</t>
   </si>
   <si>
     <t>1 bomba de agua</t>
+  </si>
+  <si>
+    <t>Conexiones ordenador</t>
+  </si>
+  <si>
+    <t>Comunicaciones placa</t>
+  </si>
+  <si>
+    <t>0 I/O</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +465,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -610,6 +616,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -677,98 +709,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,7 +1144,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1155,7 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1172,18 +1206,18 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
@@ -1196,18 +1230,18 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
@@ -1245,10 +1279,10 @@
       <c r="B5" s="1">
         <v>36</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1262,8 +1296,8 @@
         <v>91</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="21" t="s">
-        <v>105</v>
+      <c r="M5" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1276,10 +1310,10 @@
       <c r="B6" s="1">
         <v>39</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1328,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1307,10 +1341,10 @@
       <c r="B7" s="1">
         <v>34</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,11 +1355,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1338,10 +1372,10 @@
       <c r="B8" s="1">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1386,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1385,7 +1419,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="K9" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1417,7 +1451,9 @@
         <v>45</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1431,10 +1467,10 @@
       <c r="B11" s="1">
         <v>25</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1482,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="28" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="1"/>
@@ -1461,8 +1497,8 @@
       <c r="B12" s="1">
         <v>26</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1510,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="17" t="s">
@@ -1492,8 +1528,8 @@
       <c r="B13" s="1">
         <v>27</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,9 +1539,9 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="22" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -1523,8 +1559,8 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1538,9 +1574,9 @@
       <c r="I14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="30"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1578,9 +1614,9 @@
       <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="30"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="27"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1593,24 +1629,24 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="1"/>
@@ -1645,11 +1681,11 @@
         <v>2</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="49" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P17" s="1"/>
@@ -1661,27 +1697,27 @@
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="45" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="51"/>
+        <v>106</v>
+      </c>
+      <c r="O18" s="21"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1691,15 +1727,15 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="47"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
@@ -1717,15 +1753,15 @@
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="47"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1739,15 +1775,15 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="47"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1761,15 +1797,15 @@
       <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="47"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1783,15 +1819,15 @@
       <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="47"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1805,10 +1841,10 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1822,7 +1858,7 @@
       <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="28" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="1"/>
@@ -1838,8 +1874,8 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1851,7 +1887,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1865,10 +1901,10 @@
       <c r="B26" s="11">
         <v>0</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="11" t="s">
         <v>53</v>
       </c>
@@ -1883,7 +1919,7 @@
       <c r="J26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="30"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1897,10 +1933,10 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +1948,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1937,8 +1973,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="19" t="s">
-        <v>99</v>
+      <c r="K28" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1964,9 +2000,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="K29" s="50"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1994,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2023,7 +2057,7 @@
         <v>63</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2052,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2103,7 +2137,7 @@
         <v>62</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2134,8 +2168,8 @@
       <c r="J35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="48" t="s">
-        <v>98</v>
+      <c r="K35" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2166,7 +2200,7 @@
       <c r="J36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K36" s="48"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2194,7 +2228,7 @@
         <v>62</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2223,7 +2257,7 @@
         <v>64</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2235,18 +2269,18 @@
       <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3045,7 +3079,13 @@
       <c r="P83" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B16:K16"/>
@@ -3061,12 +3101,7 @@
     <mergeCell ref="C18:D23"/>
     <mergeCell ref="K18:K23"/>
     <mergeCell ref="K35:K36"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K28:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasheets/ESP WIFI.xlsx
+++ b/Datasheets/ESP WIFI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/serparram_alum_us_es/Documents/Escritorio/Tercero/SegundoCuatri/Proyectos integrados/pi01/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17EB3E4A-AB97-4AD9-9191-E89BA827663D}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="8_{68CADBE9-8CD7-444C-9B93-CDDCE59CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D92F24-A960-4CA4-855A-B1940813F5F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{121CA96C-2885-4729-A560-A640673F77D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>INPUT</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>0 I/O</t>
+  </si>
+  <si>
+    <t>UART (RX)</t>
+  </si>
+  <si>
+    <t>UART (TX)</t>
   </si>
 </sst>
 </file>
@@ -713,21 +719,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,20 +803,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337EA7A-6BEA-4852-8ECF-D6480E76EC9F}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,18 +1212,18 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
@@ -1230,18 +1236,18 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
@@ -1254,18 +1260,18 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1467,10 +1473,10 @@
       <c r="B11" s="1">
         <v>25</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1488,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="1"/>
@@ -1497,8 +1503,8 @@
       <c r="B12" s="1">
         <v>26</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +1516,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="17" t="s">
@@ -1528,8 +1534,8 @@
       <c r="B13" s="1">
         <v>27</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1539,9 +1545,9 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="28" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -1559,8 +1565,8 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1574,9 +1580,9 @@
       <c r="I14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="22"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1614,9 +1620,9 @@
       <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="22"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1629,24 +1635,24 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="51" t="s">
+      <c r="O16" s="22" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="1"/>
@@ -1681,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="15" t="s">
         <v>85</v>
       </c>
@@ -1697,19 +1703,19 @@
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="1"/>
@@ -1727,15 +1733,15 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="45"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
@@ -1753,15 +1759,15 @@
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="45"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1775,15 +1781,15 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="45"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1797,15 +1803,15 @@
       <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="45"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1819,15 +1825,15 @@
       <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="45"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1841,10 +1847,10 @@
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="1"/>
@@ -1874,8 +1880,8 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="K25" s="28"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1901,10 +1907,10 @@
       <c r="B26" s="11">
         <v>0</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="11" t="s">
         <v>53</v>
       </c>
@@ -1919,7 +1925,7 @@
       <c r="J26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1933,10 +1939,10 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="K27" s="28"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1972,8 +1978,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="K28" s="49" t="s">
+      <c r="I28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="50" t="s">
         <v>108</v>
       </c>
       <c r="L28" s="1"/>
@@ -1999,8 +2007,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="50"/>
+      <c r="I29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="51"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2098,18 +2108,18 @@
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2168,7 +2178,7 @@
       <c r="J35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="49" t="s">
         <v>107</v>
       </c>
       <c r="L35" s="1"/>
@@ -2200,7 +2210,7 @@
       <c r="J36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="49"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2269,18 +2279,18 @@
       <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3080,12 +3090,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B16:K16"/>
@@ -3102,6 +3106,12 @@
     <mergeCell ref="K18:K23"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
